--- a/permit/doc/导入/预售许可证.xlsx
+++ b/permit/doc/导入/预售许可证.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="9870"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="预售许可证" sheetId="1" r:id="rId1"/>
@@ -456,6 +456,24 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -485,24 +503,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -815,7 +815,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="A1:XFD1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -832,69 +832,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.5" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="16"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="22"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="20" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="17" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="5" t="s">
@@ -1482,91 +1482,91 @@
       <c r="O28" s="9"/>
     </row>
     <row r="29" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
     </row>
     <row r="33" spans="1:15" ht="50.1" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
